--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/20/seed1/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.432099999999995</v>
+        <v>-6.687599999999994</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.47559999999999</v>
+        <v>-11.32469999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -496,19 +496,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.54350000000003</v>
+        <v>-21.64730000000002</v>
       </c>
       <c r="B4" t="n">
-        <v>4.921699999999996</v>
+        <v>4.830800000000002</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.13489999999999</v>
+        <v>-11.40029999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.31560000000002</v>
+        <v>13.60350000000002</v>
       </c>
     </row>
     <row r="5">
@@ -516,13 +516,13 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.370299999999999</v>
+        <v>5.4781</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-9.206999999999988</v>
+        <v>-9.205699999999988</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.66530000000002</v>
+        <v>-21.56940000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>5.589299999999996</v>
+        <v>5.783599999999998</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.42620000000001</v>
+        <v>-21.45250000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.58030000000003</v>
+        <v>-21.42310000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>4.7669</v>
+        <v>4.798999999999996</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.80370000000001</v>
+        <v>-11.9018</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-14.17080000000001</v>
+        <v>-14.22100000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>10.94430000000001</v>
+        <v>11.02890000000001</v>
       </c>
     </row>
     <row r="13">
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.6612</v>
+        <v>-11.72519999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.38770000000003</v>
+        <v>-21.23570000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>4.8575</v>
+        <v>4.959499999999997</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -712,7 +712,7 @@
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>13.2291</v>
+        <v>13.08820000000001</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>-6.63</v>
       </c>
       <c r="E17" t="n">
-        <v>13.11050000000001</v>
+        <v>13.04060000000001</v>
       </c>
     </row>
     <row r="18">
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.58090000000001</v>
+        <v>-14.45300000000002</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.60640000000002</v>
+        <v>-22.59730000000001</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -777,15 +777,15 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.346900000000007</v>
+        <v>-8.214200000000003</v>
       </c>
       <c r="E20" t="n">
-        <v>13.17219999999999</v>
+        <v>13.26239999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.6587</v>
+        <v>-20.60049999999999</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>4.927700000000002</v>
+        <v>5.3669</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -859,13 +859,13 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.5855</v>
+        <v>-11.55539999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.42850000000002</v>
+        <v>13.61570000000001</v>
       </c>
     </row>
   </sheetData>
